--- a/project/FileSystem/pretty_measurements/file_system_data.xlsx
+++ b/project/FileSystem/pretty_measurements/file_system_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16180" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="random" sheetId="1" r:id="rId1"/>
@@ -200,26 +200,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Random Read Bandwidth</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -332,22 +313,41 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2132401960"/>
-        <c:axId val="2131896568"/>
+        <c:axId val="2131571080"/>
+        <c:axId val="2139814824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2132401960"/>
+        <c:axId val="2131571080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>File size in MB</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131896568"/>
+        <c:crossAx val="2139814824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -355,7 +355,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2131896568"/>
+        <c:axId val="2139814824"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -363,11 +363,30 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>milliseconds to load one block</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132401960"/>
+        <c:crossAx val="2131571080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -403,30 +422,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Sequential</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Read Bandwidth</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -539,21 +535,44 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2131828264"/>
-        <c:axId val="2131831208"/>
+        <c:axId val="2136206728"/>
+        <c:axId val="2138432376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2131828264"/>
+        <c:axId val="2136206728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>File</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> size in MB</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131831208"/>
+        <c:crossAx val="2138432376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -561,7 +580,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2131831208"/>
+        <c:axId val="2138432376"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -569,11 +588,35 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>milliseconds</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> to load one block</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131828264"/>
+        <c:crossAx val="2136206728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -609,26 +652,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Contention</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -795,21 +819,44 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2134574456"/>
-        <c:axId val="2134435400"/>
+        <c:axId val="2136598152"/>
+        <c:axId val="2136601096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2134574456"/>
+        <c:axId val="2136598152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Concurrent Processes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134435400"/>
+        <c:crossAx val="2136601096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -817,18 +864,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2134435400"/>
+        <c:axId val="2136601096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Access time per block in milliseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134574456"/>
+        <c:crossAx val="2136598152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1287,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1622,8 +1688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
